--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,58 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>hate</t>
@@ -94,34 +100,31 @@
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>false</t>
   </si>
   <si>
     <t>fake</t>
@@ -136,34 +139,37 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>many</t>
+    <t>wow</t>
   </si>
   <si>
     <t>social</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -649,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -699,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -746,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.7017543859649122</v>
@@ -896,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,38 +1002,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L11">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.2962962962962963</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.1951219512195122</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,37 +1252,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6363636363636364</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.03916211293260474</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1314,21 +1320,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>0.03005464480874317</v>
+      </c>
+      <c r="L17">
+        <v>33</v>
+      </c>
+      <c r="M17">
+        <v>33</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1366,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1395,18 +1425,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4710144927536232</v>
+        <v>0.45</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1418,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1444,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1470,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4117647058823529</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1496,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1525,18 +1555,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3428571428571429</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1548,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3404255319148936</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1574,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3076923076923077</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1600,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.282051282051282</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1626,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2608695652173913</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1652,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1025641025641026</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1678,7 +1708,33 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>70</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.08974358974358974</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
